--- a/output/fit_clients/fit_round_149.xlsx
+++ b/output/fit_clients/fit_round_149.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1772836715.404854</v>
+        <v>2111359906.524623</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0901537903249174</v>
+        <v>0.0854835363346043</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04112100866785387</v>
+        <v>0.04074187866862468</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>886418322.791837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2505294293.965477</v>
+        <v>1833672632.692236</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1138574018027354</v>
+        <v>0.1554744188165165</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03948166651635152</v>
+        <v>0.04678378118059359</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1252647265.257083</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4034453393.799359</v>
+        <v>3265629898.63321</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1239371834495454</v>
+        <v>0.1168007995992054</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03750905364649443</v>
+        <v>0.0352662404079492</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>54</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2017226713.480695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4129192833.298714</v>
+        <v>3356933132.74658</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06801355579619865</v>
+        <v>0.0727392106063068</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04019046720606818</v>
+        <v>0.04334143487698552</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>59</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2064596411.766143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2064426871.529649</v>
+        <v>2299277647.940814</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09868433462034068</v>
+        <v>0.1399698081855002</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05120297548054394</v>
+        <v>0.0494169100216196</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1032213458.35247</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2330872881.660729</v>
+        <v>2119072411.719442</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07036933770424836</v>
+        <v>0.07218124631396579</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04680012969236118</v>
+        <v>0.04233061024630421</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>44</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1165436470.085159</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2682205253.667186</v>
+        <v>3257647119.937301</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1759007279053094</v>
+        <v>0.1336579319048283</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02814541679787326</v>
+        <v>0.02646236682414512</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>47</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1341102651.816859</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1680883258.289639</v>
+        <v>2115191620.491296</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1245613273994547</v>
+        <v>0.1956575854243172</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03737485044836843</v>
+        <v>0.03459475555695742</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>840441699.9980021</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4797425609.508269</v>
+        <v>4222326522.001637</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2078960952683034</v>
+        <v>0.1845401650142104</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03344448372999859</v>
+        <v>0.03719697509635644</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>63</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2398712888.325994</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3010457459.872812</v>
+        <v>3680821886.71191</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1853637752881518</v>
+        <v>0.1408736199224281</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04837998698148602</v>
+        <v>0.03391560912584263</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>62</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1505228673.605371</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2994052997.019461</v>
+        <v>2595431705.051855</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1969380440365943</v>
+        <v>0.1670751237919445</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05247022850156448</v>
+        <v>0.04442509347461666</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>51</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1497026515.936039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4980555991.040915</v>
+        <v>5116531200.613599</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07625361548799363</v>
+        <v>0.06355440169758293</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02585207555876568</v>
+        <v>0.02932947560081771</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>50</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2490278000.608509</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3105599392.760866</v>
+        <v>3746266230.410085</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1286259679798736</v>
+        <v>0.1480280259153706</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03888392245819639</v>
+        <v>0.03542228273996093</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>48</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1552799723.138577</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1349987563.015481</v>
+        <v>1231560045.201212</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09366797506372038</v>
+        <v>0.1051775734903575</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04651007719425175</v>
+        <v>0.03285359311433777</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>674993832.9603618</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2027096581.503481</v>
+        <v>2339268271.217339</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07893724868103438</v>
+        <v>0.09621314817543074</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05152916589000362</v>
+        <v>0.03922339231834478</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>23</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1013548363.786873</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3985865482.036453</v>
+        <v>4531430740.544196</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1600308983739485</v>
+        <v>0.1074481222778239</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03981171249558552</v>
+        <v>0.04702766654645192</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>44</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1992932776.289232</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3739007400.867789</v>
+        <v>2785723274.647278</v>
       </c>
       <c r="F18" t="n">
-        <v>0.177147626450396</v>
+        <v>0.1158394598787473</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02690948199102498</v>
+        <v>0.02092996865838126</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>49</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1869503677.206175</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1106662628.285315</v>
+        <v>1145922221.285727</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1882773460666303</v>
+        <v>0.1414642784244723</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02694109869950695</v>
+        <v>0.02241373811661473</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>553331369.2908082</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1989910995.122625</v>
+        <v>2115223451.364471</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1154881381502535</v>
+        <v>0.1057716512347992</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02230188131956903</v>
+        <v>0.02687578605758149</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>23</v>
-      </c>
-      <c r="J20" t="n">
-        <v>994955524.9549314</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1657874138.939248</v>
+        <v>2689746523.757704</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06934099213956513</v>
+        <v>0.1025240253950991</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04141332114977191</v>
+        <v>0.04533011428886549</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>828937138.1117197</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4025484126.975765</v>
+        <v>3080940262.590746</v>
       </c>
       <c r="F22" t="n">
-        <v>0.130699685436872</v>
+        <v>0.1432711768562082</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03940301281637124</v>
+        <v>0.0356125366195812</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>43</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2012742063.565838</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>976495417.2976491</v>
+        <v>1402726454.052953</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1462231795637326</v>
+        <v>0.1859839291003068</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04055108942868287</v>
+        <v>0.05049955134317993</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>488247782.7567949</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3320932599.164098</v>
+        <v>2507433222.708803</v>
       </c>
       <c r="F24" t="n">
-        <v>0.102785681928463</v>
+        <v>0.1097121877417182</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02572893584313583</v>
+        <v>0.03061098100002419</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>44</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1660466313.197669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1373095976.052365</v>
+        <v>1297641060.355139</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08820106424781499</v>
+        <v>0.1193642802795773</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02398326905861035</v>
+        <v>0.02044302245522444</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>686547966.1327108</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>964188237.9484349</v>
+        <v>1398409857.555682</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09076452537039637</v>
+        <v>0.09667824624414885</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03332873453520342</v>
+        <v>0.02972015702021387</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>482094082.2373632</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4086266453.89129</v>
+        <v>4550717932.250821</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1319893260408396</v>
+        <v>0.1071208713732598</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02653533092337355</v>
+        <v>0.01725810938949809</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>33</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2043133232.774822</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3888394625.309292</v>
+        <v>3034823468.410151</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1109922735689632</v>
+        <v>0.1181721569421973</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04182460544502112</v>
+        <v>0.03939662397982418</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>48</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1944197400.956587</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5873117779.10454</v>
+        <v>5161563925.224012</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1017459963666301</v>
+        <v>0.09294819312194627</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03973393249890155</v>
+        <v>0.02912602873172017</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>68</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2936558776.618108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2002966236.492066</v>
+        <v>1916851863.521344</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1107615004440247</v>
+        <v>0.1392482969778737</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03415627795016161</v>
+        <v>0.03120296373394141</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1001483156.004973</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1394811102.803046</v>
+        <v>1288035715.843129</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1036206746604656</v>
+        <v>0.08553399559843822</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03362267493033819</v>
+        <v>0.04360973218847064</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>697405456.9696343</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1845292290.009093</v>
+        <v>1495216797.154244</v>
       </c>
       <c r="F32" t="n">
-        <v>0.101918601233242</v>
+        <v>0.115833991332446</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02700806223745255</v>
+        <v>0.02750071140890371</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>922646284.8453088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2263039515.62498</v>
+        <v>2189114638.41503</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1398713868009289</v>
+        <v>0.1432330389221956</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03904045087184835</v>
+        <v>0.05434860000810132</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>45</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1131519816.156168</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1456402885.462533</v>
+        <v>1336555618.703988</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1141515489708778</v>
+        <v>0.1204737654777509</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0234188411218868</v>
+        <v>0.02065452093704289</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>728201405.7003759</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1218343117.40135</v>
+        <v>929180818.7351658</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1018082105585325</v>
+        <v>0.1060123351494496</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03026833316768739</v>
+        <v>0.03393852934631043</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>609171529.3640959</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3235921067.574445</v>
+        <v>2511070387.979046</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1604128446646184</v>
+        <v>0.1215979361225536</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02596648954106593</v>
+        <v>0.01951064844354714</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>37</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1617960496.773279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2165584451.092587</v>
+        <v>2743705522.866277</v>
       </c>
       <c r="F37" t="n">
-        <v>0.102588492392328</v>
+        <v>0.071308399539342</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03467115991234253</v>
+        <v>0.02886367385103999</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>40</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1082792275.560912</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2015836937.06678</v>
+        <v>1940333404.102366</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1221705524307512</v>
+        <v>0.09085757035011008</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03864188680711045</v>
+        <v>0.02413699390331299</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1007918444.884158</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2124055508.756301</v>
+        <v>1746832396.509476</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1291497517717152</v>
+        <v>0.1849142818361864</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03069610968804646</v>
+        <v>0.02531148691479067</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1062027730.059623</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1591589458.237692</v>
+        <v>1808502703.854286</v>
       </c>
       <c r="F40" t="n">
-        <v>0.134440374514452</v>
+        <v>0.1153342520803518</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04906385131016467</v>
+        <v>0.04170905442431354</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>795794672.3546623</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2507982166.92676</v>
+        <v>2636022214.600482</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1553423686159508</v>
+        <v>0.1025957299293593</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04177044474648267</v>
+        <v>0.03554938086981288</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>37</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1253991107.921758</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4002061718.378139</v>
+        <v>3865124365.279357</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07744076853624629</v>
+        <v>0.09503288222048423</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03076984894562776</v>
+        <v>0.03466612255438544</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>51</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2001030888.581156</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2264939053.755108</v>
+        <v>2873047896.29398</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1702599749850036</v>
+        <v>0.2027957184624706</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01840005800188816</v>
+        <v>0.02417863609451459</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>50</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1132469599.150203</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2370495604.242026</v>
+        <v>2080735570.238145</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07418520553706483</v>
+        <v>0.07876587700849629</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02665819489457319</v>
+        <v>0.02436389268590753</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1185247982.340279</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1843966713.476067</v>
+        <v>1861258915.652253</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1749390103758894</v>
+        <v>0.1531841412804968</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04718642198009795</v>
+        <v>0.04526929197712101</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>921983331.8464555</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3537588188.310128</v>
+        <v>4550523981.828475</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1396837313587954</v>
+        <v>0.1432048858258828</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04014388054163003</v>
+        <v>0.05151702837581603</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>53</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1768794037.207203</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4606792024.940711</v>
+        <v>5155694613.723948</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1478514246843176</v>
+        <v>0.127813545560316</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05317474732012011</v>
+        <v>0.03863019069393331</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>40</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2303396045.979931</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4526735245.753957</v>
+        <v>3607837737.000796</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07357345144889922</v>
+        <v>0.07859084566738381</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02776007730269633</v>
+        <v>0.02510249381172534</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>49</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2263367626.621288</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1749653740.358231</v>
+        <v>1426270374.048214</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1680845513602352</v>
+        <v>0.1477614439782344</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0360679585907388</v>
+        <v>0.04375850932555688</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>874826863.3347297</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2900911334.278045</v>
+        <v>4089159603.75828</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1116154272997488</v>
+        <v>0.1397152737682888</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05185882032517528</v>
+        <v>0.04007931747488988</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>51</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1450455733.981491</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1188188209.787113</v>
+        <v>1121366900.180135</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1940565779693799</v>
+        <v>0.1387878994024432</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04482949613741018</v>
+        <v>0.03844363333331635</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>594094158.3034955</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4832305348.978173</v>
+        <v>4812888805.091808</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1115135520611485</v>
+        <v>0.1204451394584416</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06113773553934067</v>
+        <v>0.05718655515247614</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>61</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2416152681.949121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3152757094.275772</v>
+        <v>2315013637.796055</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1704935080423925</v>
+        <v>0.1542090338074224</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02911517061600446</v>
+        <v>0.02682548777590322</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>42</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1576378569.006649</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4775653788.694897</v>
+        <v>4653817895.845301</v>
       </c>
       <c r="F54" t="n">
-        <v>0.132227008434328</v>
+        <v>0.1287650288461898</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04220134679676036</v>
+        <v>0.04491459791313141</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>49</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2387827019.300685</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3284738578.749037</v>
+        <v>3086103037.555333</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1769324228811019</v>
+        <v>0.1791329473885924</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02797633962863631</v>
+        <v>0.02312773638488501</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>40</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1642369232.656712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1365481247.263137</v>
+        <v>1534894394.376327</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1105492201224204</v>
+        <v>0.1428710527476088</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05313486681234429</v>
+        <v>0.03571023325405321</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>682740685.7512519</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4423509799.807086</v>
+        <v>2902246564.73371</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1527359359996354</v>
+        <v>0.1541319773369334</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02471897782849814</v>
+        <v>0.02423698978605924</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>47</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2211755023.79414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1499597703.478226</v>
+        <v>1535273029.574655</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1364472236547379</v>
+        <v>0.169397060519376</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03785296107776466</v>
+        <v>0.03479300196143028</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>749798882.8680959</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4183634899.350253</v>
+        <v>5384132974.009328</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1046662901447094</v>
+        <v>0.08837115000638984</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05010882361051284</v>
+        <v>0.03746195725196023</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>40</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2091817416.704521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2604440105.434373</v>
+        <v>3108896845.812526</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1549642829195692</v>
+        <v>0.1855443914604018</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02898826155443644</v>
+        <v>0.03168629118884867</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>48</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1302220081.538146</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2878761055.763094</v>
+        <v>3137168022.391404</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1757238247391738</v>
+        <v>0.1148027769791918</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02499100494342231</v>
+        <v>0.02346043194043606</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>54</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1439380519.744221</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2010235493.958071</v>
+        <v>1430880624.080833</v>
       </c>
       <c r="F62" t="n">
-        <v>0.12702872087135</v>
+        <v>0.1541414532233072</v>
       </c>
       <c r="G62" t="n">
-        <v>0.032966242248299</v>
+        <v>0.03177427110124269</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1005117806.562801</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4471941978.766807</v>
+        <v>5566239510.526785</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1033544726622156</v>
+        <v>0.07583333763113101</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04621040684602049</v>
+        <v>0.03254750971056676</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>44</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2235971030.67157</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3643868932.995615</v>
+        <v>3357648115.04355</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1539461898046783</v>
+        <v>0.1432563259535962</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03077138541842887</v>
+        <v>0.03530444672935422</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>46</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1821934477.27105</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5222552442.277913</v>
+        <v>5970563581.922888</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1611343188158722</v>
+        <v>0.1253817360014682</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03016075109304031</v>
+        <v>0.02936344466669552</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>53</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2611276166.742845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3512609661.984533</v>
+        <v>3611609269.096652</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1533239044896394</v>
+        <v>0.1147931880602813</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04293802337924476</v>
+        <v>0.04177038911291463</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>43</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1756304778.40404</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3094863596.881557</v>
+        <v>2227251808.735111</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07842675833922487</v>
+        <v>0.07308718997597817</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03246059318776886</v>
+        <v>0.04648314207091624</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>48</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1547431808.606849</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5655637418.476959</v>
+        <v>4022618982.071267</v>
       </c>
       <c r="F68" t="n">
-        <v>0.143235100565469</v>
+        <v>0.1435107232848812</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03593566656666894</v>
+        <v>0.04294958471668526</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>47</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2827818805.318615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2127256324.548054</v>
+        <v>1620512281.980956</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1585882908035799</v>
+        <v>0.1820121328278933</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03696841891844369</v>
+        <v>0.05900990372640837</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1063628183.669751</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3306728351.97078</v>
+        <v>2636875636.526268</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08231356747857105</v>
+        <v>0.08355664913834103</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0318677234249027</v>
+        <v>0.03197257572860324</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>43</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1653364172.874878</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5575958454.205984</v>
+        <v>4989937564.266002</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1583412129711001</v>
+        <v>0.153524129921235</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02572002112648661</v>
+        <v>0.03147263524792267</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>54</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2787979375.790301</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2177240076.395278</v>
+        <v>2212532660.53816</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08598900725257393</v>
+        <v>0.08456303560404599</v>
       </c>
       <c r="G72" t="n">
-        <v>0.036310885654649</v>
+        <v>0.04820624932412571</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1088619955.918424</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2699192589.228403</v>
+        <v>3320570033.437753</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08323520718415317</v>
+        <v>0.1086402126824839</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04605644973577389</v>
+        <v>0.04005941177797469</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>58</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1349596318.112258</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3331676266.020166</v>
+        <v>3814569897.435338</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1781895187628283</v>
+        <v>0.1548460608758297</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03006138531199307</v>
+        <v>0.03117222456434456</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>51</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1665838169.720338</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1721233414.364962</v>
+        <v>1834697342.736336</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1018508386745398</v>
+        <v>0.1146693331495882</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03760567512998423</v>
+        <v>0.03160085657365978</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>860616697.4363066</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3598570752.137538</v>
+        <v>4756385626.957885</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08145452562425516</v>
+        <v>0.09748594823183931</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02072498325588634</v>
+        <v>0.03147634748909785</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>33</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1799285343.926652</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1650220294.11591</v>
+        <v>2135520627.770267</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1788892876297682</v>
+        <v>0.1233089177793212</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02018070963148917</v>
+        <v>0.03088163404558098</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>825110156.8859731</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4001869195.065619</v>
+        <v>4488578514.461598</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1143937788691645</v>
+        <v>0.09501113424427114</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03580228318131094</v>
+        <v>0.05659455894060961</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>52</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2000934563.086921</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1710368844.416778</v>
+        <v>1470008939.912326</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1674252585325664</v>
+        <v>0.1582583898308419</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03855154804312959</v>
+        <v>0.03372631375295095</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>855184493.1929053</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5546729829.625491</v>
+        <v>4971826492.153186</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09935546197396582</v>
+        <v>0.1021245930270037</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02347851842191797</v>
+        <v>0.03739401561275903</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>31</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2773364991.165006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3569599441.524148</v>
+        <v>4436594825.446001</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1078489308189131</v>
+        <v>0.1354062984755078</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02867871390859213</v>
+        <v>0.02780035350074184</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>35</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1784799667.919916</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4106616427.337326</v>
+        <v>4543794999.906904</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1461971169990444</v>
+        <v>0.2092221339984317</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02097907983367189</v>
+        <v>0.02400471021675733</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>55</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2053308247.449092</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1809090248.632972</v>
+        <v>1549214567.981719</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1407944693242939</v>
+        <v>0.1084615788051661</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04003389448673984</v>
+        <v>0.04543463144146603</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>904545085.8594928</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1635611406.116055</v>
+        <v>2398360634.480739</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1097349195534955</v>
+        <v>0.08781375959008418</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03253756746201308</v>
+        <v>0.05071746222988452</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>817805761.398872</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2377472760.621324</v>
+        <v>3253166786.939268</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1738842781312907</v>
+        <v>0.1692341570304747</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05476339016890978</v>
+        <v>0.03992501940969947</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>56</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1188736371.694847</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2703009549.846626</v>
+        <v>2576737302.33438</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1347281513997931</v>
+        <v>0.104518809705112</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02268707673304584</v>
+        <v>0.02647537509373326</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>16</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1351504900.283032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1093433388.724816</v>
+        <v>1278146084.743373</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1596431363366951</v>
+        <v>0.1227547016094875</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04076048620042217</v>
+        <v>0.04202525008138554</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>546716722.5858096</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2560187623.318033</v>
+        <v>2780988942.082275</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1337835856932744</v>
+        <v>0.1135815782724284</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03319460528820342</v>
+        <v>0.03613391473293875</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>59</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1280093798.608354</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3411624118.76687</v>
+        <v>2278363127.988292</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1433629015499837</v>
+        <v>0.1046072038294148</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03999424128220308</v>
+        <v>0.03377921973257067</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>52</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1705812067.282444</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1751008613.062232</v>
+        <v>1323792410.621888</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09751892583523401</v>
+        <v>0.1216967281681253</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04598335967249235</v>
+        <v>0.04443835773028807</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>875504331.1491827</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1367164101.668457</v>
+        <v>1993710547.592302</v>
       </c>
       <c r="F91" t="n">
-        <v>0.15326268886434</v>
+        <v>0.1807113755758913</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0573397162023639</v>
+        <v>0.05861187783985478</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>683582107.4133599</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2991356308.805909</v>
+        <v>2438221410.983395</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08431622677406973</v>
+        <v>0.09647974775433769</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04458330907144786</v>
+        <v>0.03034648837036186</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>33</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1495678175.424443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3262135810.491294</v>
+        <v>4535811396.425991</v>
       </c>
       <c r="F93" t="n">
-        <v>0.126918360254171</v>
+        <v>0.09780938888969064</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05110517685115044</v>
+        <v>0.0431357408706653</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>45</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1631067953.519521</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2184161067.787665</v>
+        <v>2209059269.442058</v>
       </c>
       <c r="F94" t="n">
-        <v>0.109614993557967</v>
+        <v>0.1533929598053112</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02748831450003602</v>
+        <v>0.03142018213137034</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1092080556.163094</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2107291978.417254</v>
+        <v>3026143937.526872</v>
       </c>
       <c r="F95" t="n">
-        <v>0.117190685629852</v>
+        <v>0.1135727285881424</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03425679870138589</v>
+        <v>0.03410062999072059</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>36</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1053646053.81286</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1775899818.443738</v>
+        <v>2229084911.441112</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08582590869788823</v>
+        <v>0.1393507884825219</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03638776669800499</v>
+        <v>0.03123884501911792</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>887949920.0839558</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4913232844.169125</v>
+        <v>4390755302.971329</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1723320116593429</v>
+        <v>0.1301873524045958</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02173698810943452</v>
+        <v>0.0222340048206529</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>48</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2456616551.864999</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3184214412.156664</v>
+        <v>2443668617.848551</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1148475296035792</v>
+        <v>0.123697297823477</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02585573664263927</v>
+        <v>0.02719923253788303</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>39</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1592107203.243823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3095630630.344512</v>
+        <v>2753672131.244797</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09246913863096645</v>
+        <v>0.1212400190357268</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03046907992925969</v>
+        <v>0.02209257388582596</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>47</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1547815308.054605</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3909852694.61821</v>
+        <v>3795951508.445142</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1581146390549493</v>
+        <v>0.1247421205644611</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02482103915396544</v>
+        <v>0.01728266772945572</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>45</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1954926410.755399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3198293206.715029</v>
+        <v>3382035196.292922</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2051284054998207</v>
+        <v>0.1973988950705162</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05554999863144095</v>
+        <v>0.04851114424135879</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>61</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1599146718.618923</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_149.xlsx
+++ b/output/fit_clients/fit_round_149.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2111359906.524623</v>
+        <v>1528805233.60222</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0854835363346043</v>
+        <v>0.07918246478422979</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04074187866862468</v>
+        <v>0.02913110285466979</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1833672632.692236</v>
+        <v>1804691097.236623</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1554744188165165</v>
+        <v>0.1776306689378351</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04678378118059359</v>
+        <v>0.04245564154663099</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3265629898.63321</v>
+        <v>4830492865.289583</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1168007995992054</v>
+        <v>0.1667997841219616</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0352662404079492</v>
+        <v>0.02322650634271457</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3356933132.74658</v>
+        <v>3801338336.969708</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0727392106063068</v>
+        <v>0.07999099249405933</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04334143487698552</v>
+        <v>0.04037714859298035</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2299277647.940814</v>
+        <v>2033225963.75882</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1399698081855002</v>
+        <v>0.1048316371718739</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0494169100216196</v>
+        <v>0.0363945867963618</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2119072411.719442</v>
+        <v>2036981865.074463</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07218124631396579</v>
+        <v>0.08248262514878935</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04233061024630421</v>
+        <v>0.03943071822571399</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3257647119.937301</v>
+        <v>3692638006.841009</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1336579319048283</v>
+        <v>0.2115247036829918</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02646236682414512</v>
+        <v>0.03143152844563869</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2115191620.491296</v>
+        <v>2083627553.31816</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1956575854243172</v>
+        <v>0.1467891541774355</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03459475555695742</v>
+        <v>0.02428710103630627</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4222326522.001637</v>
+        <v>5048778348.886699</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1845401650142104</v>
+        <v>0.1386790775408294</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03719697509635644</v>
+        <v>0.04857915238417609</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3680821886.71191</v>
+        <v>3058272221.982074</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1408736199224281</v>
+        <v>0.1248589752801426</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03391560912584263</v>
+        <v>0.04867964117689759</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2595431705.051855</v>
+        <v>2198696036.584591</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1670751237919445</v>
+        <v>0.1407477145170234</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04442509347461666</v>
+        <v>0.04256788780617469</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5116531200.613599</v>
+        <v>4971805177.512786</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06355440169758293</v>
+        <v>0.08164317117178599</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02932947560081771</v>
+        <v>0.02885282637659983</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3746266230.410085</v>
+        <v>3312280972.674616</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1480280259153706</v>
+        <v>0.1204935181971385</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03542228273996093</v>
+        <v>0.04292505929628147</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1231560045.201212</v>
+        <v>1132662720.195219</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1051775734903575</v>
+        <v>0.08879730858459461</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03285359311433777</v>
+        <v>0.04031044493398913</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2339268271.217339</v>
+        <v>2529884446.272946</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09621314817543074</v>
+        <v>0.08640293941532821</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03922339231834478</v>
+        <v>0.03137256542232136</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4531430740.544196</v>
+        <v>4696311432.578403</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1074481222778239</v>
+        <v>0.1450423378916114</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04702766654645192</v>
+        <v>0.03456945529174119</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2785723274.647278</v>
+        <v>3703605549.873583</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1158394598787473</v>
+        <v>0.1803999053014525</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02092996865838126</v>
+        <v>0.02824901664584813</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1145922221.285727</v>
+        <v>1086452692.254871</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1414642784244723</v>
+        <v>0.1320115056538424</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02241373811661473</v>
+        <v>0.02404236118433912</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2115223451.364471</v>
+        <v>1882199629.542643</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1057716512347992</v>
+        <v>0.1182233088327976</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02687578605758149</v>
+        <v>0.02239776110280496</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2689746523.757704</v>
+        <v>1764955620.571461</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1025240253950991</v>
+        <v>0.06658739124752061</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04533011428886549</v>
+        <v>0.0383722750975239</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3080940262.590746</v>
+        <v>2604891129.106446</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1432711768562082</v>
+        <v>0.1389560675988021</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0356125366195812</v>
+        <v>0.04299380474612013</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1402726454.052953</v>
+        <v>1167462487.939097</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1859839291003068</v>
+        <v>0.1172337057297536</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05049955134317993</v>
+        <v>0.04588314933507894</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2507433222.708803</v>
+        <v>2870126537.441607</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1097121877417182</v>
+        <v>0.1109046071364068</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03061098100002419</v>
+        <v>0.0359769965318302</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1297641060.355139</v>
+        <v>1187364134.51313</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1193642802795773</v>
+        <v>0.09677124547766665</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02044302245522444</v>
+        <v>0.0304126940703234</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1398409857.555682</v>
+        <v>1303925904.707746</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09667824624414885</v>
+        <v>0.1110605065962392</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02972015702021387</v>
+        <v>0.02531702801977709</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4550717932.250821</v>
+        <v>4096596231.590847</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1071208713732598</v>
+        <v>0.1128636886707061</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01725810938949809</v>
+        <v>0.02355488028537231</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3034823468.410151</v>
+        <v>2427068484.594533</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1181721569421973</v>
+        <v>0.0982032305940954</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03939662397982418</v>
+        <v>0.04019392820558734</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5161563925.224012</v>
+        <v>5542622663.615061</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09294819312194627</v>
+        <v>0.1344393979580428</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02912602873172017</v>
+        <v>0.02878790296808733</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1916851863.521344</v>
+        <v>2039269655.874381</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1392482969778737</v>
+        <v>0.09925836927371076</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03120296373394141</v>
+        <v>0.03822199722091252</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1288035715.843129</v>
+        <v>1378979648.881369</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08553399559843822</v>
+        <v>0.07389966190651669</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04360973218847064</v>
+        <v>0.04262867956141254</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1495216797.154244</v>
+        <v>1351001441.313706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.115833991332446</v>
+        <v>0.08703569205823104</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02750071140890371</v>
+        <v>0.02783059646286353</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2189114638.41503</v>
+        <v>2888524556.538864</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1432330389221956</v>
+        <v>0.1287767369790494</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05434860000810132</v>
+        <v>0.06001062235093844</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1336555618.703988</v>
+        <v>1181498285.650268</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1204737654777509</v>
+        <v>0.09885850015814225</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02065452093704289</v>
+        <v>0.02222934626124734</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>929180818.7351658</v>
+        <v>1333585555.95802</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1060123351494496</v>
+        <v>0.07714258528821355</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03393852934631043</v>
+        <v>0.03716532854461992</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2511070387.979046</v>
+        <v>2221484791.073654</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1215979361225536</v>
+        <v>0.1785743936922909</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01951064844354714</v>
+        <v>0.02508750864098737</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2743705522.866277</v>
+        <v>2667408404.195368</v>
       </c>
       <c r="F37" t="n">
-        <v>0.071308399539342</v>
+        <v>0.0943640962621979</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02886367385103999</v>
+        <v>0.02685898546472926</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1940333404.102366</v>
+        <v>2052451102.054559</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09085757035011008</v>
+        <v>0.08285611675989105</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02413699390331299</v>
+        <v>0.03204048225781847</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1746832396.509476</v>
+        <v>1765086345.891633</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1849142818361864</v>
+        <v>0.1905671186760788</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02531148691479067</v>
+        <v>0.0248417591468001</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1808502703.854286</v>
+        <v>1476175431.682725</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1153342520803518</v>
+        <v>0.1378933701210131</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04170905442431354</v>
+        <v>0.04572365733175487</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2636022214.600482</v>
+        <v>2501779131.801918</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1025957299293593</v>
+        <v>0.1266246488951664</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03554938086981288</v>
+        <v>0.04651606639461736</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3865124365.279357</v>
+        <v>4054781701.768921</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09503288222048423</v>
+        <v>0.1271577386334635</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03466612255438544</v>
+        <v>0.04539567302283773</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2873047896.29398</v>
+        <v>2019720599.23648</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2027957184624706</v>
+        <v>0.1816709350065315</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02417863609451459</v>
+        <v>0.02244220913863671</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2080735570.238145</v>
+        <v>1604765248.884143</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07876587700849629</v>
+        <v>0.1025378194623807</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02436389268590753</v>
+        <v>0.02658641787184402</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1861258915.652253</v>
+        <v>1932783891.50718</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1531841412804968</v>
+        <v>0.1472790783726284</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04526929197712101</v>
+        <v>0.03899258997904474</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4550523981.828475</v>
+        <v>4209502684.785886</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1432048858258828</v>
+        <v>0.1622518521017731</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05151702837581603</v>
+        <v>0.0395562742867948</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5155694613.723948</v>
+        <v>4374221410.155863</v>
       </c>
       <c r="F47" t="n">
-        <v>0.127813545560316</v>
+        <v>0.1999651592371257</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03863019069393331</v>
+        <v>0.04086053916994157</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3607837737.000796</v>
+        <v>3423133164.823174</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07859084566738381</v>
+        <v>0.1030554600183085</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02510249381172534</v>
+        <v>0.02745316433964426</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1426270374.048214</v>
+        <v>1734776678.228656</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1477614439782344</v>
+        <v>0.1692525775522026</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04375850932555688</v>
+        <v>0.02831824556160388</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4089159603.75828</v>
+        <v>3622985364.076411</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1397152737682888</v>
+        <v>0.172280933302374</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04007931747488988</v>
+        <v>0.03939889947192714</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1121366900.180135</v>
+        <v>1338494358.23641</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1387878994024432</v>
+        <v>0.1422527499512564</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03844363333331635</v>
+        <v>0.0410028962066757</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4812888805.091808</v>
+        <v>4672751224.871998</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1204451394584416</v>
+        <v>0.1338303817881316</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05718655515247614</v>
+        <v>0.05321823383887613</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2315013637.796055</v>
+        <v>2979993584.108919</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1542090338074224</v>
+        <v>0.1846077419733973</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02682548777590322</v>
+        <v>0.0337688512409717</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4653817895.845301</v>
+        <v>4933874661.948651</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1287650288461898</v>
+        <v>0.1277569893008219</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04491459791313141</v>
+        <v>0.03687766725530502</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3086103037.555333</v>
+        <v>4094530410.019486</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1791329473885924</v>
+        <v>0.2219834804084827</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02312773638488501</v>
+        <v>0.0238420224370931</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1534894394.376327</v>
+        <v>1161822823.453722</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1428710527476088</v>
+        <v>0.1154159362874282</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03571023325405321</v>
+        <v>0.04326161851290406</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2902246564.73371</v>
+        <v>2817188169.631386</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1541319773369334</v>
+        <v>0.1289518339184499</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02423698978605924</v>
+        <v>0.02399713477739061</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1535273029.574655</v>
+        <v>1647873649.328373</v>
       </c>
       <c r="F58" t="n">
-        <v>0.169397060519376</v>
+        <v>0.1732768556384389</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03479300196143028</v>
+        <v>0.03243769239216862</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5384132974.009328</v>
+        <v>3808707867.325669</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08837115000638984</v>
+        <v>0.1069609253763876</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03746195725196023</v>
+        <v>0.03039517170218473</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3108896845.812526</v>
+        <v>3063420477.180606</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1855443914604018</v>
+        <v>0.1624115844400478</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03168629118884867</v>
+        <v>0.03061274425498085</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3137168022.391404</v>
+        <v>3223445689.272479</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1148027769791918</v>
+        <v>0.1487759284651058</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02346043194043606</v>
+        <v>0.02127763118724775</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1430880624.080833</v>
+        <v>1779149784.245504</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1541414532233072</v>
+        <v>0.1530171297413154</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03177427110124269</v>
+        <v>0.04113346558455959</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5566239510.526785</v>
+        <v>4334279533.975233</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07583333763113101</v>
+        <v>0.07641188339501663</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03254750971056676</v>
+        <v>0.04196562956320553</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3357648115.04355</v>
+        <v>5180090545.018359</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1432563259535962</v>
+        <v>0.1777082921369665</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03530444672935422</v>
+        <v>0.02809822143337642</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5970563581.922888</v>
+        <v>4189903244.699386</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1253817360014682</v>
+        <v>0.1335492568345403</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02936344466669552</v>
+        <v>0.02232360463952547</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,13 +2278,13 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3611609269.096652</v>
+        <v>5255363638.579218</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1147931880602813</v>
+        <v>0.1256493841974568</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04177038911291463</v>
+        <v>0.03191448192427448</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2227251808.735111</v>
+        <v>3033696840.054099</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07308718997597817</v>
+        <v>0.07816257158954054</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04648314207091624</v>
+        <v>0.04065703408687255</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4022618982.071267</v>
+        <v>5212930133.867623</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1435107232848812</v>
+        <v>0.1581069691160598</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04294958471668526</v>
+        <v>0.04188660981592555</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1620512281.980956</v>
+        <v>1755753504.642343</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1820121328278933</v>
+        <v>0.1223339587139726</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05900990372640837</v>
+        <v>0.05435482880069118</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2636875636.526268</v>
+        <v>2542338697.423976</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08355664913834103</v>
+        <v>0.06238249806700336</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03197257572860324</v>
+        <v>0.04237923627922332</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4989937564.266002</v>
+        <v>4749863547.377548</v>
       </c>
       <c r="F71" t="n">
-        <v>0.153524129921235</v>
+        <v>0.1677869730053722</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03147263524792267</v>
+        <v>0.03326197420902861</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2212532660.53816</v>
+        <v>1817171105.68149</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08456303560404599</v>
+        <v>0.1011314280058727</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04820624932412571</v>
+        <v>0.04217098398937517</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3320570033.437753</v>
+        <v>2458375213.442123</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1086402126824839</v>
+        <v>0.09375922064280899</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04005941177797469</v>
+        <v>0.03467099301108577</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3814569897.435338</v>
+        <v>3077934326.01388</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1548460608758297</v>
+        <v>0.1480419164199424</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03117222456434456</v>
+        <v>0.02980646569200134</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1834697342.736336</v>
+        <v>2375097216.37721</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1146693331495882</v>
+        <v>0.1609965305839729</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03160085657365978</v>
+        <v>0.02359321319987961</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4756385626.957885</v>
+        <v>3261310248.140055</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09748594823183931</v>
+        <v>0.07556718696241341</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03147634748909785</v>
+        <v>0.03019112133122024</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2135520627.770267</v>
+        <v>1478273892.001325</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1233089177793212</v>
+        <v>0.1699348456713446</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03088163404558098</v>
+        <v>0.02707304117668167</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4488578514.461598</v>
+        <v>4184189068.54893</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09501113424427114</v>
+        <v>0.1205012009908397</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05659455894060961</v>
+        <v>0.05305141000100886</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1470008939.912326</v>
+        <v>1739713882.368008</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1582583898308419</v>
+        <v>0.1595123756752006</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03372631375295095</v>
+        <v>0.03404660014810908</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4971826492.153186</v>
+        <v>4542102206.792182</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1021245930270037</v>
+        <v>0.09423460791798975</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03739401561275903</v>
+        <v>0.03007613018260427</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4436594825.446001</v>
+        <v>3981300611.572466</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1354062984755078</v>
+        <v>0.1095079203645267</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02780035350074184</v>
+        <v>0.02196849850532565</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4543794999.906904</v>
+        <v>4947081043.099889</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2092221339984317</v>
+        <v>0.1575804235453128</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02400471021675733</v>
+        <v>0.01895147956518425</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1549214567.981719</v>
+        <v>2486570722.149111</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1084615788051661</v>
+        <v>0.1376459969074775</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04543463144146603</v>
+        <v>0.03437085471875297</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2398360634.480739</v>
+        <v>1789753357.783504</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08781375959008418</v>
+        <v>0.07697569964459636</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05071746222988452</v>
+        <v>0.04853534611344531</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3253166786.939268</v>
+        <v>3476701900.748292</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1692341570304747</v>
+        <v>0.1452968911870822</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03992501940969947</v>
+        <v>0.04916060258646536</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2576737302.33438</v>
+        <v>2783255565.713976</v>
       </c>
       <c r="F86" t="n">
-        <v>0.104518809705112</v>
+        <v>0.1438710006887553</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02647537509373326</v>
+        <v>0.02308818356770651</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1278146084.743373</v>
+        <v>1505631163.32251</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1227547016094875</v>
+        <v>0.1205156969071537</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04202525008138554</v>
+        <v>0.0444687771859173</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2780988942.082275</v>
+        <v>2465474869.832649</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1135815782724284</v>
+        <v>0.1307630127625129</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03613391473293875</v>
+        <v>0.02712074635781228</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2278363127.988292</v>
+        <v>3220504820.674866</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1046072038294148</v>
+        <v>0.1513109324791355</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03377921973257067</v>
+        <v>0.03130632608059688</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1323792410.621888</v>
+        <v>1897165309.59218</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1216967281681253</v>
+        <v>0.1239989606645354</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04443835773028807</v>
+        <v>0.04129784136145737</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1993710547.592302</v>
+        <v>1543846423.66544</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1807113755758913</v>
+        <v>0.1701889535151796</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05861187783985478</v>
+        <v>0.03945983144803284</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2438221410.983395</v>
+        <v>2599126690.604371</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09647974775433769</v>
+        <v>0.08516318200911799</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03034648837036186</v>
+        <v>0.036621674941673</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4535811396.425991</v>
+        <v>4217934906.605201</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09780938888969064</v>
+        <v>0.1026208445291129</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0431357408706653</v>
+        <v>0.04370018519876463</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2209059269.442058</v>
+        <v>2018931702.062346</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1533929598053112</v>
+        <v>0.1678608629051873</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03142018213137034</v>
+        <v>0.03816545843742164</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3026143937.526872</v>
+        <v>2881369764.495906</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1135727285881424</v>
+        <v>0.1219394020950188</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03410062999072059</v>
+        <v>0.03667044103838261</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2229084911.441112</v>
+        <v>2164845082.237986</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1393507884825219</v>
+        <v>0.1395944910358192</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03123884501911792</v>
+        <v>0.03337078124935717</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4390755302.971329</v>
+        <v>3823554267.723794</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1301873524045958</v>
+        <v>0.1217572112464055</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0222340048206529</v>
+        <v>0.02312892778489206</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2443668617.848551</v>
+        <v>2965916786.839425</v>
       </c>
       <c r="F98" t="n">
-        <v>0.123697297823477</v>
+        <v>0.08189857578928708</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02719923253788303</v>
+        <v>0.02467281149948058</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2753672131.244797</v>
+        <v>2456387232.2857</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1212400190357268</v>
+        <v>0.1288682436372858</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02209257388582596</v>
+        <v>0.02363045608558123</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3795951508.445142</v>
+        <v>3321227367.747933</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1247421205644611</v>
+        <v>0.1627562744474976</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01728266772945572</v>
+        <v>0.01712745877807865</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3382035196.292922</v>
+        <v>2545331769.577714</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1973988950705162</v>
+        <v>0.1634372397445938</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04851114424135879</v>
+        <v>0.04703980888345614</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_149.xlsx
+++ b/output/fit_clients/fit_round_149.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1528805233.60222</v>
+        <v>1587506733.780118</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07918246478422979</v>
+        <v>0.0778846203393114</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02913110285466979</v>
+        <v>0.02999829453666224</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1804691097.236623</v>
+        <v>2133330678.342618</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1776306689378351</v>
+        <v>0.1617564438318017</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04245564154663099</v>
+        <v>0.03928138900351464</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4830492865.289583</v>
+        <v>3543955219.009195</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1667997841219616</v>
+        <v>0.1034436147211986</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02322650634271457</v>
+        <v>0.03489022127740972</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>85</v>
+      </c>
+      <c r="J4" t="n">
+        <v>148</v>
+      </c>
+      <c r="K4" t="n">
+        <v>129.8609006064508</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3801338336.969708</v>
+        <v>3467130454.40084</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07999099249405933</v>
+        <v>0.09985722452794155</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04037714859298035</v>
+        <v>0.04706272475190526</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>61</v>
+      </c>
+      <c r="J5" t="n">
+        <v>149</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2033225963.75882</v>
+        <v>2140648541.278456</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1048316371718739</v>
+        <v>0.1293817091959437</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0363945867963618</v>
+        <v>0.03466129312725713</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2036981865.074463</v>
+        <v>2728244304.508662</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08248262514878935</v>
+        <v>0.075825958656902</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03943071822571399</v>
+        <v>0.04461299157038681</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3692638006.841009</v>
+        <v>3112015194.250954</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2115247036829918</v>
+        <v>0.1535200074459342</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03143152844563869</v>
+        <v>0.02863823993396941</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>43</v>
+      </c>
+      <c r="J8" t="n">
+        <v>144</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2083627553.31816</v>
+        <v>2245585889.572484</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1467891541774355</v>
+        <v>0.1554838388767664</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02428710103630627</v>
+        <v>0.0319434003497162</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5048778348.886699</v>
+        <v>5407287550.659391</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1386790775408294</v>
+        <v>0.1667093564812185</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04857915238417609</v>
+        <v>0.04789872865198214</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>137</v>
+      </c>
+      <c r="J10" t="n">
+        <v>149</v>
+      </c>
+      <c r="K10" t="n">
+        <v>151.8709587640113</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +820,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3058272221.982074</v>
+        <v>3902690372.156366</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1248589752801426</v>
+        <v>0.1157416041386042</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04867964117689759</v>
+        <v>0.03860662089107567</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>63</v>
+      </c>
+      <c r="J11" t="n">
+        <v>149</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2198696036.584591</v>
+        <v>2507572850.925126</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1407477145170234</v>
+        <v>0.1693925169400735</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04256788780617469</v>
+        <v>0.03318716015962208</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +890,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4971805177.512786</v>
+        <v>3320756065.619393</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08164317117178599</v>
+        <v>0.06382266650704677</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02885282637659983</v>
+        <v>0.02471034069407734</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>72</v>
+      </c>
+      <c r="J13" t="n">
+        <v>147</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3312280972.674616</v>
+        <v>3442615049.490019</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1204935181971385</v>
+        <v>0.1564308556581289</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04292505929628147</v>
+        <v>0.03790945326740362</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>26</v>
+      </c>
+      <c r="J14" t="n">
+        <v>149</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1132662720.195219</v>
+        <v>1641071059.277414</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08879730858459461</v>
+        <v>0.07611678368529842</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04031044493398913</v>
+        <v>0.04583127197493345</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2529884446.272946</v>
+        <v>2179855409.171631</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08640293941532821</v>
+        <v>0.09914032462024208</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03137256542232136</v>
+        <v>0.04124325401168775</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4696311432.578403</v>
+        <v>3222426085.772239</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1450423378916114</v>
+        <v>0.144659438071069</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03456945529174119</v>
+        <v>0.03390945129982091</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>72</v>
+      </c>
+      <c r="J17" t="n">
+        <v>148</v>
+      </c>
+      <c r="K17" t="n">
+        <v>97.78785452337456</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3703605549.873583</v>
+        <v>3067669948.248065</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1803999053014525</v>
+        <v>0.1514433465432713</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02824901664584813</v>
+        <v>0.02265671262584478</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>37</v>
+      </c>
+      <c r="J18" t="n">
+        <v>143</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1086452692.254871</v>
+        <v>1224826992.371577</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1320115056538424</v>
+        <v>0.1470314303719235</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02404236118433912</v>
+        <v>0.01995456304750287</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1882199629.542643</v>
+        <v>1790279969.344802</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1182233088327976</v>
+        <v>0.1102444586261793</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02239776110280496</v>
+        <v>0.03142763748993047</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1764955620.571461</v>
+        <v>1836238195.750556</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06658739124752061</v>
+        <v>0.09776815839767074</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0383722750975239</v>
+        <v>0.03518896285678713</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2604891129.106446</v>
+        <v>3328825359.930928</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1389560675988021</v>
+        <v>0.1070803724023477</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04299380474612013</v>
+        <v>0.05716084091151025</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>38</v>
+      </c>
+      <c r="J22" t="n">
+        <v>146</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1167462487.939097</v>
+        <v>1018905009.982181</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1172337057297536</v>
+        <v>0.123042752289094</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04588314933507894</v>
+        <v>0.04537395234732995</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2870126537.441607</v>
+        <v>4123992744.287038</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1109046071364068</v>
+        <v>0.09655098144594991</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0359769965318302</v>
+        <v>0.02767810811650003</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>43</v>
+      </c>
+      <c r="J24" t="n">
+        <v>149</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1187364134.51313</v>
+        <v>1076330935.951311</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09677124547766665</v>
+        <v>0.1123473624176102</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0304126940703234</v>
+        <v>0.02281999329297699</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1303925904.707746</v>
+        <v>1099288811.873408</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1110605065962392</v>
+        <v>0.1186656077717468</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02531702801977709</v>
+        <v>0.03767173524415552</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4096596231.590847</v>
+        <v>3636421949.321453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1128636886707061</v>
+        <v>0.1179972189130457</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02355488028537231</v>
+        <v>0.01639911460667489</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>58</v>
+      </c>
+      <c r="J27" t="n">
+        <v>149</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2427068484.594533</v>
+        <v>3237869989.412755</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0982032305940954</v>
+        <v>0.1249529598201116</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04019392820558734</v>
+        <v>0.04235894927187878</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" t="n">
+        <v>140</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5542622663.615061</v>
+        <v>4434203285.38156</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1344393979580428</v>
+        <v>0.106688996827383</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02878790296808733</v>
+        <v>0.03851443083633369</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>138</v>
+      </c>
+      <c r="J29" t="n">
+        <v>149</v>
+      </c>
+      <c r="K29" t="n">
+        <v>162.3635580760027</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2039269655.874381</v>
+        <v>2287082292.35395</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09925836927371076</v>
+        <v>0.1348761226080979</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03822199722091252</v>
+        <v>0.03287264857303539</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1378979648.881369</v>
+        <v>1463541717.5703</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07389966190651669</v>
+        <v>0.09929507807609164</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04262867956141254</v>
+        <v>0.03190437037362988</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1351001441.313706</v>
+        <v>1582777004.616666</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08703569205823104</v>
+        <v>0.08236136532521188</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02783059646286353</v>
+        <v>0.02571815007182898</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2888524556.538864</v>
+        <v>2632937021.270537</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1287767369790494</v>
+        <v>0.1380285346115738</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06001062235093844</v>
+        <v>0.04842518798520707</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1181498285.650268</v>
+        <v>1570349043.117426</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09885850015814225</v>
+        <v>0.1030271264845801</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02222934626124734</v>
+        <v>0.02786005254058456</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1333585555.95802</v>
+        <v>1349012455.696129</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07714258528821355</v>
+        <v>0.07933876795579883</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03716532854461992</v>
+        <v>0.04074015647831539</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2221484791.073654</v>
+        <v>2359789948.540303</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1785743936922909</v>
+        <v>0.1342184129309968</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02508750864098737</v>
+        <v>0.0240687314658365</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1734,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2667408404.195368</v>
+        <v>2494733387.564435</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0943640962621979</v>
+        <v>0.07851898593378268</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02685898546472926</v>
+        <v>0.03356935910598567</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1769,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2052451102.054559</v>
+        <v>1694068260.23949</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08285611675989105</v>
+        <v>0.09097893697207519</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03204048225781847</v>
+        <v>0.02968157981194783</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1765086345.891633</v>
+        <v>1660678056.93619</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1905671186760788</v>
+        <v>0.1920355173877116</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0248417591468001</v>
+        <v>0.02528026152269381</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1476175431.682725</v>
+        <v>1600369011.860658</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1378933701210131</v>
+        <v>0.1566306310131874</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04572365733175487</v>
+        <v>0.04851083598361157</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2501779131.801918</v>
+        <v>2113684694.742316</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1266246488951664</v>
+        <v>0.1651328460561255</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04651606639461736</v>
+        <v>0.0390986119983667</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1903,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4054781701.768921</v>
+        <v>3136573788.760044</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1271577386334635</v>
+        <v>0.09792489029153581</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04539567302283773</v>
+        <v>0.04266234719311925</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>54</v>
+      </c>
+      <c r="J42" t="n">
+        <v>145</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2019720599.23648</v>
+        <v>2271227270.623969</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1816709350065315</v>
+        <v>0.1836062859538571</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02244220913863671</v>
+        <v>0.01976380107929347</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1979,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1604765248.884143</v>
+        <v>2217515240.215442</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1025378194623807</v>
+        <v>0.09811523896888308</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02658641787184402</v>
+        <v>0.03518569200007567</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1932783891.50718</v>
+        <v>1953003894.181194</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1472790783726284</v>
+        <v>0.1174894781434522</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03899258997904474</v>
+        <v>0.04974626402799144</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2049,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4209502684.785886</v>
+        <v>3799719362.234127</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1622518521017731</v>
+        <v>0.1588752105885306</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0395562742867948</v>
+        <v>0.04062605050123971</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>84</v>
+      </c>
+      <c r="J46" t="n">
+        <v>148</v>
+      </c>
+      <c r="K46" t="n">
+        <v>140.2371176053993</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4374221410.155863</v>
+        <v>4561431576.118853</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1999651592371257</v>
+        <v>0.1844486411280457</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04086053916994157</v>
+        <v>0.04098348104541299</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>66</v>
+      </c>
+      <c r="J47" t="n">
+        <v>149</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2115,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3423133164.823174</v>
+        <v>3637269590.089738</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1030554600183085</v>
+        <v>0.08408944013538733</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02745316433964426</v>
+        <v>0.03323133729491223</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>64</v>
+      </c>
+      <c r="J48" t="n">
+        <v>149</v>
+      </c>
+      <c r="K48" t="n">
+        <v>142.7845302152351</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2158,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1734776678.228656</v>
+        <v>1638433993.785393</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1692525775522026</v>
+        <v>0.1381617975896752</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02831824556160388</v>
+        <v>0.02726891571759409</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3622985364.076411</v>
+        <v>3259256986.634478</v>
       </c>
       <c r="F50" t="n">
-        <v>0.172280933302374</v>
+        <v>0.1145065656862595</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03939889947192714</v>
+        <v>0.03223276326793845</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>49</v>
+      </c>
+      <c r="J50" t="n">
+        <v>147</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1338494358.23641</v>
+        <v>1236628185.734663</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1422527499512564</v>
+        <v>0.1753220958994933</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0410028962066757</v>
+        <v>0.04948485529430297</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2257,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4672751224.871998</v>
+        <v>5051352971.638045</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1338303817881316</v>
+        <v>0.1259894504631423</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05321823383887613</v>
+        <v>0.0437893231083141</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>110</v>
+      </c>
+      <c r="J52" t="n">
+        <v>149</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2292,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2979993584.108919</v>
+        <v>3545601086.386267</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1846077419733973</v>
+        <v>0.1325583891493014</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0337688512409717</v>
+        <v>0.02745508239319406</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>19</v>
+      </c>
+      <c r="J53" t="n">
+        <v>148</v>
+      </c>
+      <c r="K53" t="n">
+        <v>121.5338505331531</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4933874661.948651</v>
+        <v>4052845058.472844</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1277569893008219</v>
+        <v>0.1026706043716063</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03687766725530502</v>
+        <v>0.04721554095019889</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>70</v>
+      </c>
+      <c r="J54" t="n">
+        <v>149</v>
+      </c>
+      <c r="K54" t="n">
+        <v>142.3664954866906</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4094530410.019486</v>
+        <v>3814251755.258383</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2219834804084827</v>
+        <v>0.2103673602071268</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0238420224370931</v>
+        <v>0.02758028844911532</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>68</v>
+      </c>
+      <c r="J55" t="n">
+        <v>149</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2407,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1161822823.453722</v>
+        <v>1515383259.160222</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1154159362874282</v>
+        <v>0.1059806512078163</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04326161851290406</v>
+        <v>0.05249960152050621</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2436,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2817188169.631386</v>
+        <v>3633425520.167594</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1289518339184499</v>
+        <v>0.1363406278156995</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02399713477739061</v>
+        <v>0.02012318871703518</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>60</v>
+      </c>
+      <c r="J57" t="n">
+        <v>149</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2477,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1647873649.328373</v>
+        <v>1161105650.899103</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1732768556384389</v>
+        <v>0.1800591197665389</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03243769239216862</v>
+        <v>0.03389916932939457</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2506,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3808707867.325669</v>
+        <v>4487737203.461296</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1069609253763876</v>
+        <v>0.081097643582995</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03039517170218473</v>
+        <v>0.03442351700973799</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>72</v>
+      </c>
+      <c r="J59" t="n">
+        <v>149</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2541,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3063420477.180606</v>
+        <v>2987481300.205829</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1624115844400478</v>
+        <v>0.1506636393198958</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03061274425498085</v>
+        <v>0.02987619444591863</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>23</v>
+      </c>
+      <c r="J60" t="n">
+        <v>148</v>
+      </c>
+      <c r="K60" t="n">
+        <v>93.57705894636683</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3223445689.272479</v>
+        <v>3025719071.330638</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1487759284651058</v>
+        <v>0.1473080953608131</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02127763118724775</v>
+        <v>0.02798975743647194</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>146</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2619,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1779149784.245504</v>
+        <v>1475921965.833785</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1530171297413154</v>
+        <v>0.117580817056611</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04113346558455959</v>
+        <v>0.03368879854806515</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2654,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4334279533.975233</v>
+        <v>5222869080.36698</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07641188339501663</v>
+        <v>0.07347793645949455</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04196562956320553</v>
+        <v>0.03307110481702084</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>73</v>
+      </c>
+      <c r="J63" t="n">
+        <v>148</v>
+      </c>
+      <c r="K63" t="n">
+        <v>128.1186879937246</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5180090545.018359</v>
+        <v>4195627078.44613</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1777082921369665</v>
+        <v>0.1879371394371034</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02809822143337642</v>
+        <v>0.02812096001008203</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>74</v>
+      </c>
+      <c r="J64" t="n">
+        <v>148</v>
+      </c>
+      <c r="K64" t="n">
+        <v>132.9289843223306</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4189903244.699386</v>
+        <v>3963121965.421373</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1335492568345403</v>
+        <v>0.1204511123480763</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02232360463952547</v>
+        <v>0.02440651634369426</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>124</v>
+      </c>
+      <c r="J65" t="n">
+        <v>148</v>
+      </c>
+      <c r="K65" t="n">
+        <v>142.2800783874673</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2765,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5255363638.579218</v>
+        <v>4274109163.245505</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1256493841974568</v>
+        <v>0.09896872204118544</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03191448192427448</v>
+        <v>0.04872960872290705</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>73</v>
+      </c>
+      <c r="J66" t="n">
+        <v>149</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2800,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3033696840.054099</v>
+        <v>2496694263.635818</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07816257158954054</v>
+        <v>0.07681479937061671</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04065703408687255</v>
+        <v>0.04529543827613818</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5212930133.867623</v>
+        <v>4231626235.270622</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1581069691160598</v>
+        <v>0.1225340970649895</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04188660981592555</v>
+        <v>0.05119903821880541</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>75</v>
+      </c>
+      <c r="J68" t="n">
+        <v>148</v>
+      </c>
+      <c r="K68" t="n">
+        <v>130.4532202137065</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1755753504.642343</v>
+        <v>1525487951.505167</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1223339587139726</v>
+        <v>0.151066736004585</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05435482880069118</v>
+        <v>0.04432284158730204</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2907,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2542338697.423976</v>
+        <v>2640824409.394581</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06238249806700336</v>
+        <v>0.09248295576172602</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04237923627922332</v>
+        <v>0.03099662558577805</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>21</v>
+      </c>
+      <c r="J70" t="n">
+        <v>148</v>
+      </c>
+      <c r="K70" t="n">
+        <v>68.93042061074144</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4749863547.377548</v>
+        <v>4642494093.772963</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1677869730053722</v>
+        <v>0.1581508290119713</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03326197420902861</v>
+        <v>0.02518081709955714</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>118</v>
+      </c>
+      <c r="J71" t="n">
+        <v>149</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1817171105.68149</v>
+        <v>2180682684.005716</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1011314280058727</v>
+        <v>0.08814178332908132</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04217098398937517</v>
+        <v>0.04620629732036764</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2458375213.442123</v>
+        <v>3343273535.873678</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09375922064280899</v>
+        <v>0.08245836944397772</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03467099301108577</v>
+        <v>0.03276651832822921</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3077934326.01388</v>
+        <v>3313644472.488099</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1480419164199424</v>
+        <v>0.1225228661341703</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02980646569200134</v>
+        <v>0.02575294414852645</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>46</v>
+      </c>
+      <c r="J74" t="n">
+        <v>142</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2375097216.37721</v>
+        <v>2144574825.718112</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1609965305839729</v>
+        <v>0.1366994176033058</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02359321319987961</v>
+        <v>0.0368925116081984</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3119,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3261310248.140055</v>
+        <v>3335925701.437908</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07556718696241341</v>
+        <v>0.0944712509902586</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03019112133122024</v>
+        <v>0.03219766677953548</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>68</v>
+      </c>
+      <c r="J76" t="n">
+        <v>147</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1478273892.001325</v>
+        <v>1810299630.118868</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1699348456713446</v>
+        <v>0.1261963226338806</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02707304117668167</v>
+        <v>0.02188389624375187</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3189,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4184189068.54893</v>
+        <v>3234912597.863832</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1205012009908397</v>
+        <v>0.1180559753650388</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05305141000100886</v>
+        <v>0.03469368354394439</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>75</v>
+      </c>
+      <c r="J78" t="n">
+        <v>148</v>
+      </c>
+      <c r="K78" t="n">
+        <v>113.9931825996706</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1739713882.368008</v>
+        <v>1664847964.501102</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1595123756752006</v>
+        <v>0.1551277713554356</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03404660014810908</v>
+        <v>0.02882806937128306</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4542102206.792182</v>
+        <v>4089644619.899832</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09423460791798975</v>
+        <v>0.1107199114201324</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03007613018260427</v>
+        <v>0.02522948777402782</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>72</v>
+      </c>
+      <c r="J80" t="n">
+        <v>149</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3290,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3981300611.572466</v>
+        <v>3386146850.785966</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1095079203645267</v>
+        <v>0.1261721788870986</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02196849850532565</v>
+        <v>0.02036939200457356</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>68</v>
+      </c>
+      <c r="J81" t="n">
+        <v>147</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4947081043.099889</v>
+        <v>4762776595.301767</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1575804235453128</v>
+        <v>0.2059991868314777</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01895147956518425</v>
+        <v>0.02712696316452642</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>107</v>
+      </c>
+      <c r="J82" t="n">
+        <v>149</v>
+      </c>
+      <c r="K82" t="n">
+        <v>148.9264668614959</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2486570722.149111</v>
+        <v>2483444427.734699</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1376459969074775</v>
+        <v>0.1022322512819308</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03437085471875297</v>
+        <v>0.02895661504711295</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1789753357.783504</v>
+        <v>1878208786.876966</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07697569964459636</v>
+        <v>0.1186758396451074</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04853534611344531</v>
+        <v>0.03411139703201503</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3476701900.748292</v>
+        <v>3428731784.412126</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1452968911870822</v>
+        <v>0.1734878269070945</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04916060258646536</v>
+        <v>0.0487422356140977</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>143</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2783255565.713976</v>
+        <v>2628983914.924107</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1438710006887553</v>
+        <v>0.1421578814448069</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02308818356770651</v>
+        <v>0.02725978616857061</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1505631163.32251</v>
+        <v>996353261.8497604</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1205156969071537</v>
+        <v>0.1723559091907023</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0444687771859173</v>
+        <v>0.0351956219737833</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3537,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2465474869.832649</v>
+        <v>3433836478.513943</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1307630127625129</v>
+        <v>0.1340397871386015</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02712074635781228</v>
+        <v>0.03750292730041224</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>19</v>
+      </c>
+      <c r="J88" t="n">
+        <v>149</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3572,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3220504820.674866</v>
+        <v>3048763879.866724</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1513109324791355</v>
+        <v>0.1087823786307625</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03130632608059688</v>
+        <v>0.03079794980956727</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>12</v>
+      </c>
+      <c r="J89" t="n">
+        <v>146</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3607,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1897165309.59218</v>
+        <v>2043566661.820271</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1239989606645354</v>
+        <v>0.1354691762416374</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04129784136145737</v>
+        <v>0.05314366093701227</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3642,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1543846423.66544</v>
+        <v>1880775907.036229</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1701889535151796</v>
+        <v>0.1819485413036821</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03945983144803284</v>
+        <v>0.06016609037032392</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3677,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2599126690.604371</v>
+        <v>2175900896.643923</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08516318200911799</v>
+        <v>0.07733160147952854</v>
       </c>
       <c r="G92" t="n">
-        <v>0.036621674941673</v>
+        <v>0.04055884940733084</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3712,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4217934906.605201</v>
+        <v>5030522345.026981</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1026208445291129</v>
+        <v>0.1346811096119594</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04370018519876463</v>
+        <v>0.03635332992223547</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>67</v>
+      </c>
+      <c r="J93" t="n">
+        <v>148</v>
+      </c>
+      <c r="K93" t="n">
+        <v>132.0333069168597</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2018931702.062346</v>
+        <v>1789089223.384765</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1678608629051873</v>
+        <v>0.1146142034810037</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03816545843742164</v>
+        <v>0.04194995754851247</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2881369764.495906</v>
+        <v>2790235130.938285</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1219394020950188</v>
+        <v>0.1131790377093911</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03667044103838261</v>
+        <v>0.0379674147783504</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2164845082.237986</v>
+        <v>1586813614.413455</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1395944910358192</v>
+        <v>0.1020443020161864</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03337078124935717</v>
+        <v>0.03649285229179804</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3854,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3823554267.723794</v>
+        <v>4337520587.390446</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1217572112464055</v>
+        <v>0.137297767632902</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02312892778489206</v>
+        <v>0.0197954731378872</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>71</v>
+      </c>
+      <c r="J97" t="n">
+        <v>149</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3889,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2965916786.839425</v>
+        <v>2993503781.537934</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08189857578928708</v>
+        <v>0.09085486555011489</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02467281149948058</v>
+        <v>0.02325598255242199</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>35</v>
+      </c>
+      <c r="J98" t="n">
+        <v>148</v>
+      </c>
+      <c r="K98" t="n">
+        <v>83.00778280450164</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3926,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2456387232.2857</v>
+        <v>2105029312.353484</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1288682436372858</v>
+        <v>0.1155831969645668</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02363045608558123</v>
+        <v>0.03533584808427387</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3961,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3321227367.747933</v>
+        <v>3449447356.409875</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1627562744474976</v>
+        <v>0.1347736463987913</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01712745877807865</v>
+        <v>0.02553931808991558</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>62</v>
+      </c>
+      <c r="J100" t="n">
+        <v>148</v>
+      </c>
+      <c r="K100" t="n">
+        <v>115.8242724064346</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2545331769.577714</v>
+        <v>2658610738.067225</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1634372397445938</v>
+        <v>0.1713098083661603</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04703980888345614</v>
+        <v>0.05219685816371827</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>12</v>
+      </c>
+      <c r="J101" t="n">
+        <v>148</v>
+      </c>
+      <c r="K101" t="n">
+        <v>72.90456414683311</v>
       </c>
     </row>
   </sheetData>
